--- a/hyperparameter.xlsx
+++ b/hyperparameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliamyers/code/springboard/Capstone2Letterboxd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B4DB00-2943-5149-87E1-42BE6EA981BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5E385B-8AED-1840-9403-0D9679517FD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18020" yWindow="-3140" windowWidth="18020" windowHeight="17560" xr2:uid="{DD4A1B49-83D6-6540-BE2C-57E92CB6C388}"/>
+    <workbookView xWindow="-20420" yWindow="-3140" windowWidth="20420" windowHeight="17560" xr2:uid="{DD4A1B49-83D6-6540-BE2C-57E92CB6C388}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>model score: 0.0539</t>
   </si>
   <si>
-    <t>model score: 0.05954, rmse: 0.4625</t>
-  </si>
-  <si>
     <t xml:space="preserve">int </t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>model score: 0.05848</t>
   </si>
   <si>
-    <t>model score: 0.05777, rmse: 0.4629</t>
-  </si>
-  <si>
     <t>likes, views, running time, year</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>model score: 0.0683</t>
   </si>
   <si>
-    <t>model score: 0.06459, rmse: 0.4612</t>
-  </si>
-  <si>
     <t>genres</t>
   </si>
   <si>
@@ -159,15 +150,9 @@
     <t>model score: 0.06822</t>
   </si>
   <si>
-    <t>model score: 0.06478, rmse: 0.4612</t>
-  </si>
-  <si>
     <t>model score: 0.1591</t>
   </si>
   <si>
-    <t>model score: 0.1289, rmse: 0.445</t>
-  </si>
-  <si>
     <t>Ridge Regression</t>
   </si>
   <si>
@@ -177,9 +162,6 @@
     <t>model score: 0.9757</t>
   </si>
   <si>
-    <t>model score: 0.9738, rmse: 0.07718</t>
-  </si>
-  <si>
     <t>model score: 0.1572</t>
   </si>
   <si>
@@ -205,6 +187,24 @@
   </si>
   <si>
     <t>model score: 0.9707, rmse: 0.0816</t>
+  </si>
+  <si>
+    <t>model score: 0.9738, rmse: 0.0772</t>
+  </si>
+  <si>
+    <t>model score: 0.0648, rmse: 0.4612</t>
+  </si>
+  <si>
+    <t>model score: 0.0578, rmse: 0.4629</t>
+  </si>
+  <si>
+    <t>model score: 0.0646, rmse: 0.4612</t>
+  </si>
+  <si>
+    <t>model score: 0.0595, rmse: 0.4625</t>
+  </si>
+  <si>
+    <t>model score: 0.1289, rmse: 0.4450</t>
   </si>
 </sst>
 </file>
@@ -591,20 +591,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76F4E42-A951-1940-8794-E61C2BA6CC0D}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -687,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -701,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -712,13 +714,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -729,16 +731,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -746,13 +748,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>9</v>
@@ -763,16 +765,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -780,135 +782,135 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
